--- a/GroceryApplication/src/main/resources/Excel/loginCredientials.xlsx
+++ b/GroceryApplication/src/main/resources/Excel/loginCredientials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>admin</t>
   </si>
@@ -133,6 +133,36 @@
   </si>
   <si>
     <t>iphone66130125073521</t>
+  </si>
+  <si>
+    <t>Encrypted Text</t>
+  </si>
+  <si>
+    <t>euLUpj0cPhoYeh/Yn0ce9Q==</t>
+  </si>
+  <si>
+    <t>Manage News</t>
+  </si>
+  <si>
+    <t>AddNews</t>
+  </si>
+  <si>
+    <t>Seasonal fruits and vegetables are now in stock! Enjoy farm-fresh produce delivered to your doorstep</t>
+  </si>
+  <si>
+    <t>Get amazing discounts on groceries this weekend. Stock up on essentials and save big!</t>
+  </si>
+  <si>
+    <t>Shop more, save more! Enjoy free delivery when you spend $50 or more</t>
+  </si>
+  <si>
+    <t>Invite your friends to our app and earn $10 credit for every successful referral!</t>
+  </si>
+  <si>
+    <t>Your safety is our priority. Choose contactless delivery for a safer shopping experience.</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -187,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +225,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,6 +697,56 @@
         <v>978246489</v>
       </c>
     </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
